--- a/biology/Botanique/Indice_de_végétation_par_différence_normalisée/Indice_de_végétation_par_différence_normalisée.xlsx
+++ b/biology/Botanique/Indice_de_végétation_par_différence_normalisée/Indice_de_végétation_par_différence_normalisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_de_v%C3%A9g%C3%A9tation_par_diff%C3%A9rence_normalis%C3%A9e</t>
+          <t>Indice_de_végétation_par_différence_normalisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' indice de végétation par différence normalisée ( NDVI ) est un indicateur graphique simple qui peut être utilisé pour analyser les mesures de télédétection, souvent depuis une plateforme spatiale, en évaluant si la cible observée contient ou non une végétation verte vivante.
 </t>
